--- a/output/Slot Distribution.xlsx
+++ b/output/Slot Distribution.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="109">
   <si>
     <t>SHAHJALAL UNIVERSITY OF SCIENCE &amp; TECHNOLOGY</t>
   </si>
@@ -113,7 +113,7 @@
     <t>GREEN UNIVERSITY OF BANGLADESH</t>
   </si>
   <si>
-    <t>SHEIKH HASINA UNIVERSITY</t>
+    <t>NETROKONA UNIVERSITY</t>
   </si>
   <si>
     <t>SOUTHEAST UNIVERSITY</t>
@@ -260,46 +260,43 @@
     <t>DAFFODIL INSTITUTE OF IT (DIIT)</t>
   </si>
   <si>
+    <t>DHAKA RESIDENTIAL MODEL COLLEGE</t>
+  </si>
+  <si>
+    <t>GOPALGANJ SCIENCE AND TECHNOLOGY UNIVERSITY (GSTU)</t>
+  </si>
+  <si>
+    <t>EUROPEAN UNIVERSITY OF BANGLADESH</t>
+  </si>
+  <si>
     <t>BRAHMANBARIA POLYTECHNIC INSTITUTE</t>
   </si>
   <si>
     <t>BANGLADESH DIGITAL UNIVERSITY</t>
   </si>
   <si>
-    <t>DHAKA RESIDENTIAL MODEL COLLEGE</t>
-  </si>
-  <si>
     <t>DAFFODIL INTERNATIONAL COLLEGE</t>
   </si>
   <si>
     <t>IMPERIAL COLLEGE OF ENGINEERING, KHULNA</t>
   </si>
   <si>
-    <t>GOPALGANJ SCIENCE AND TECHNOLOGY UNIVERSITY (GSTU)</t>
-  </si>
-  <si>
-    <t>NETROKONA UNIVERSITY</t>
+    <t>PUNDRA UNIVERSITY OF SCIENCE AND TECHNOLOGY</t>
   </si>
   <si>
     <t>KISHOREGANJ UNIVERSITY</t>
   </si>
   <si>
-    <t>EUROPEAN UNIVERSITY OF BANGLADESH</t>
-  </si>
-  <si>
     <t>PRESIDENCY UNIVERSITY</t>
   </si>
   <si>
+    <t>THAKURGAON POLYTECHNIC INSTITUTE</t>
+  </si>
+  <si>
     <t>SIMT ENGINEERING COLLEGE</t>
   </si>
   <si>
-    <t>PUNDRA UNIVERSITY OF SCIENCE AND TECHNOLOGY</t>
-  </si>
-  <si>
     <t>UNITED COLLEGE OF AVIATION SCIENCE AND MANAGEMENT</t>
-  </si>
-  <si>
-    <t>THAKURGAON POLYTECHNIC INSTITUTE</t>
   </si>
   <si>
     <t>Institution</t>
@@ -708,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,22 +721,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1111,7 +1108,7 @@
         <v>1.140157</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -2528,28 +2525,9 @@
       </c>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96" s="2">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <f>C96+D96</f>
-        <v>0</v>
-      </c>
-      <c r="F96" s="2"/>
-    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="A2:F96">
+  <conditionalFormatting sqref="A2:F95">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>
@@ -2563,7 +2541,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2580,37 +2558,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -4804,9 +4782,6 @@
       <c r="A83" t="s">
         <v>81</v>
       </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
       <c r="K83">
         <v>0</v>
       </c>
@@ -4831,6 +4806,9 @@
       <c r="A86" t="s">
         <v>84</v>
       </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
       <c r="K86">
         <v>0</v>
       </c>
@@ -4839,9 +4817,6 @@
       <c r="A87" t="s">
         <v>85</v>
       </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
       <c r="K87">
         <v>0</v>
       </c>
@@ -4858,6 +4833,9 @@
       <c r="A89" t="s">
         <v>87</v>
       </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
       <c r="K89">
         <v>0</v>
       </c>
@@ -4866,6 +4844,12 @@
       <c r="A90" t="s">
         <v>88</v>
       </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
       <c r="K90">
         <v>0</v>
       </c>
@@ -4901,12 +4885,6 @@
       <c r="A94" t="s">
         <v>92</v>
       </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
       <c r="K94">
         <v>0</v>
       </c>
@@ -4919,17 +4897,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" t="s">
-        <v>94</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="A2:K96">
+  <conditionalFormatting sqref="A2:K95">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>

--- a/output/Slot Distribution.xlsx
+++ b/output/Slot Distribution.xlsx
@@ -176,6 +176,9 @@
     <t>NORTH EAST UNIVERSITY BANGLADESH</t>
   </si>
   <si>
+    <t>KISHOREGANJ UNIVERSITY</t>
+  </si>
+  <si>
     <t>VARENDRA UNIVERSITY</t>
   </si>
   <si>
@@ -260,31 +263,28 @@
     <t>DAFFODIL INSTITUTE OF IT (DIIT)</t>
   </si>
   <si>
+    <t>GOPALGANJ SCIENCE AND TECHNOLOGY UNIVERSITY (GSTU)</t>
+  </si>
+  <si>
+    <t>EUROPEAN UNIVERSITY OF BANGLADESH</t>
+  </si>
+  <si>
+    <t>BRAHMANBARIA POLYTECHNIC INSTITUTE</t>
+  </si>
+  <si>
+    <t>BANGLADESH DIGITAL UNIVERSITY</t>
+  </si>
+  <si>
+    <t>DAFFODIL INTERNATIONAL COLLEGE</t>
+  </si>
+  <si>
+    <t>IMPERIAL COLLEGE OF ENGINEERING, KHULNA</t>
+  </si>
+  <si>
     <t>DHAKA RESIDENTIAL MODEL COLLEGE</t>
   </si>
   <si>
-    <t>GOPALGANJ SCIENCE AND TECHNOLOGY UNIVERSITY (GSTU)</t>
-  </si>
-  <si>
-    <t>EUROPEAN UNIVERSITY OF BANGLADESH</t>
-  </si>
-  <si>
-    <t>BRAHMANBARIA POLYTECHNIC INSTITUTE</t>
-  </si>
-  <si>
-    <t>BANGLADESH DIGITAL UNIVERSITY</t>
-  </si>
-  <si>
-    <t>DAFFODIL INTERNATIONAL COLLEGE</t>
-  </si>
-  <si>
-    <t>IMPERIAL COLLEGE OF ENGINEERING, KHULNA</t>
-  </si>
-  <si>
     <t>PUNDRA UNIVERSITY OF SCIENCE AND TECHNOLOGY</t>
-  </si>
-  <si>
-    <t>KISHOREGANJ UNIVERSITY</t>
   </si>
   <si>
     <t>PRESIDENCY UNIVERSITY</t>
@@ -1751,7 +1751,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.198434</v>
+        <v>0.206194</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1770,7 +1770,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.196886</v>
+        <v>0.198434</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1789,7 +1789,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.190621</v>
+        <v>0.196886</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1808,7 +1808,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.183857</v>
+        <v>0.190621</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1827,7 +1827,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.144142</v>
+        <v>0.183857</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1846,7 +1846,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.133385</v>
+        <v>0.144142</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -1865,7 +1865,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.125735</v>
+        <v>0.133385</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1884,7 +1884,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.112405</v>
+        <v>0.125735</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -1903,7 +1903,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.11072</v>
+        <v>0.112405</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1922,7 +1922,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.09718300000000001</v>
+        <v>0.11072</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1941,7 +1941,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.071797</v>
+        <v>0.09718300000000001</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1960,7 +1960,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.067799</v>
+        <v>0.071797</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1979,7 +1979,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.062136</v>
+        <v>0.067799</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1998,7 +1998,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.059214</v>
+        <v>0.062136</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2017,7 +2017,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.056166</v>
+        <v>0.059214</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2036,7 +2036,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.048343</v>
+        <v>0.056166</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2055,7 +2055,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.046066</v>
+        <v>0.048343</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2074,7 +2074,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.046024</v>
+        <v>0.046066</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2093,7 +2093,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.043666</v>
+        <v>0.046024</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -2112,7 +2112,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.041737</v>
+        <v>0.043666</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -2131,7 +2131,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.041228</v>
+        <v>0.041737</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -2150,7 +2150,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.040262</v>
+        <v>0.041228</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -2169,7 +2169,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.039789</v>
+        <v>0.040262</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2188,7 +2188,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.036079</v>
+        <v>0.039789</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -2207,7 +2207,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.031602</v>
+        <v>0.036079</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2226,7 +2226,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.030728</v>
+        <v>0.031602</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -2245,7 +2245,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.027218</v>
+        <v>0.030728</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -2264,7 +2264,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.023781</v>
+        <v>0.027218</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -2283,7 +2283,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>0.023781</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4273,43 +4273,55 @@
       <c r="A55" t="s">
         <v>53</v>
       </c>
+      <c r="B55">
+        <v>0.244303</v>
+      </c>
       <c r="C55">
-        <v>0.42242</v>
+        <v>0.496519</v>
       </c>
       <c r="D55">
-        <v>0.081314</v>
+        <v>0.078094</v>
+      </c>
+      <c r="E55">
+        <v>0.277014</v>
+      </c>
+      <c r="F55">
+        <v>0.400034</v>
       </c>
       <c r="G55">
-        <v>0.129256</v>
+        <v>0.026182</v>
+      </c>
+      <c r="H55">
+        <v>0.144232</v>
+      </c>
+      <c r="I55">
+        <v>0.34728</v>
       </c>
       <c r="J55">
-        <v>0.370267</v>
+        <v>0.161614</v>
       </c>
       <c r="K55">
-        <v>0.198434</v>
+        <v>0.206194</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>0.207844</v>
+      <c r="C56">
+        <v>0.42242</v>
       </c>
       <c r="D56">
-        <v>0.066439</v>
+        <v>0.081314</v>
       </c>
       <c r="G56">
-        <v>0.157941</v>
-      </c>
-      <c r="H56">
-        <v>0.413679</v>
-      </c>
-      <c r="I56">
-        <v>0.246333</v>
+        <v>0.129256</v>
+      </c>
+      <c r="J56">
+        <v>0.370267</v>
       </c>
       <c r="K56">
-        <v>0.196886</v>
+        <v>0.198434</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -4317,97 +4329,88 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.199613</v>
+        <v>0.207844</v>
       </c>
       <c r="D57">
-        <v>0.061282</v>
-      </c>
-      <c r="E57">
-        <v>0.339032</v>
-      </c>
-      <c r="F57">
-        <v>0.384192</v>
+        <v>0.066439</v>
       </c>
       <c r="G57">
-        <v>0.027664</v>
-      </c>
-      <c r="J57">
-        <v>0.442348</v>
+        <v>0.157941</v>
+      </c>
+      <c r="H57">
+        <v>0.413679</v>
+      </c>
+      <c r="I57">
+        <v>0.246333</v>
       </c>
       <c r="K57">
-        <v>0.190621</v>
+        <v>0.196886</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>56</v>
       </c>
-      <c r="C58">
-        <v>0.596476</v>
+      <c r="B58">
+        <v>0.199613</v>
       </c>
       <c r="D58">
-        <v>0.076532</v>
+        <v>0.061282</v>
       </c>
       <c r="E58">
-        <v>0.271473</v>
+        <v>0.339032</v>
+      </c>
+      <c r="F58">
+        <v>0.384192</v>
       </c>
       <c r="G58">
-        <v>0.021359</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
+        <v>0.027664</v>
+      </c>
+      <c r="J58">
+        <v>0.442348</v>
       </c>
       <c r="K58">
-        <v>0.183857</v>
+        <v>0.190621</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>57</v>
       </c>
+      <c r="C59">
+        <v>0.596476</v>
+      </c>
       <c r="D59">
-        <v>0.030737</v>
+        <v>0.076532</v>
+      </c>
+      <c r="E59">
+        <v>0.271473</v>
       </c>
       <c r="G59">
-        <v>0.149478</v>
-      </c>
-      <c r="H59">
-        <v>0.162819</v>
+        <v>0.021359</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>0.144142</v>
+        <v>0.183857</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>58</v>
       </c>
-      <c r="B60">
-        <v>0.259568</v>
-      </c>
-      <c r="C60">
-        <v>0.13852</v>
-      </c>
       <c r="D60">
-        <v>0.02952</v>
-      </c>
-      <c r="E60">
-        <v>0.282667</v>
+        <v>0.030737</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>0.149478</v>
       </c>
       <c r="H60">
-        <v>0.075561</v>
-      </c>
-      <c r="I60">
-        <v>0.257733</v>
-      </c>
-      <c r="J60">
-        <v>0.212592</v>
+        <v>0.162819</v>
       </c>
       <c r="K60">
-        <v>0.133385</v>
+        <v>0.144142</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4415,100 +4418,115 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.182296</v>
+        <v>0.259568</v>
+      </c>
+      <c r="C61">
+        <v>0.13852</v>
+      </c>
+      <c r="D61">
+        <v>0.02952</v>
       </c>
       <c r="E61">
-        <v>0.281338</v>
+        <v>0.282667</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0.100261</v>
+        <v>0.075561</v>
       </c>
       <c r="I61">
-        <v>0.085825</v>
+        <v>0.257733</v>
       </c>
       <c r="J61">
-        <v>0.302535</v>
+        <v>0.212592</v>
       </c>
       <c r="K61">
-        <v>0.125735</v>
+        <v>0.133385</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>60</v>
       </c>
+      <c r="B62">
+        <v>0.182296</v>
+      </c>
       <c r="E62">
-        <v>0.245391</v>
+        <v>0.281338</v>
       </c>
       <c r="G62">
-        <v>0.04077</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>0.110918</v>
+        <v>0.100261</v>
       </c>
       <c r="I62">
-        <v>0.222665</v>
+        <v>0.085825</v>
       </c>
       <c r="J62">
-        <v>0.164912</v>
+        <v>0.302535</v>
       </c>
       <c r="K62">
-        <v>0.112405</v>
+        <v>0.125735</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="B63">
-        <v>0.187875</v>
-      </c>
-      <c r="C63">
-        <v>0.221143</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
       <c r="E63">
-        <v>0.288436</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
+        <v>0.245391</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>0.04077</v>
       </c>
       <c r="H63">
-        <v>0.098256</v>
+        <v>0.110918</v>
       </c>
       <c r="I63">
-        <v>0.079162</v>
+        <v>0.222665</v>
       </c>
       <c r="J63">
-        <v>0.158381</v>
+        <v>0.164912</v>
       </c>
       <c r="K63">
-        <v>0.11072</v>
+        <v>0.112405</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>62</v>
       </c>
+      <c r="B64">
+        <v>0.187875</v>
+      </c>
+      <c r="C64">
+        <v>0.221143</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
       <c r="E64">
-        <v>0.235673</v>
+        <v>0.288436</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>0.029509</v>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0.098256</v>
       </c>
       <c r="I64">
-        <v>0.201272</v>
+        <v>0.079162</v>
+      </c>
+      <c r="J64">
+        <v>0.158381</v>
       </c>
       <c r="K64">
-        <v>0.09718300000000001</v>
+        <v>0.11072</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4516,224 +4534,227 @@
         <v>63</v>
       </c>
       <c r="E65">
-        <v>0.184937</v>
+        <v>0.235673</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0.06841</v>
+        <v>0.029509</v>
       </c>
       <c r="I65">
-        <v>0.15158</v>
+        <v>0.201272</v>
       </c>
       <c r="K65">
-        <v>0.071797</v>
+        <v>0.09718300000000001</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>64</v>
       </c>
-      <c r="D66">
-        <v>0.056524</v>
+      <c r="E66">
+        <v>0.184937</v>
       </c>
       <c r="G66">
-        <v>0.068938</v>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0.06841</v>
+      </c>
+      <c r="I66">
+        <v>0.15158</v>
       </c>
       <c r="K66">
-        <v>0.067799</v>
+        <v>0.071797</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>65</v>
       </c>
-      <c r="E67">
-        <v>0.196492</v>
+      <c r="D67">
+        <v>0.056524</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>0.068938</v>
       </c>
       <c r="K67">
-        <v>0.062136</v>
+        <v>0.067799</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>66</v>
       </c>
+      <c r="E68">
+        <v>0.196492</v>
+      </c>
       <c r="G68">
-        <v>0.043503</v>
-      </c>
-      <c r="I68">
-        <v>0.134276</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>0.059214</v>
+        <v>0.062136</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>67</v>
       </c>
-      <c r="E69">
-        <v>0.177613</v>
-      </c>
       <c r="G69">
-        <v>0</v>
+        <v>0.043503</v>
+      </c>
+      <c r="I69">
+        <v>0.134276</v>
       </c>
       <c r="K69">
-        <v>0.056166</v>
+        <v>0.059214</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>68</v>
       </c>
-      <c r="C70">
-        <v>0.133035</v>
+      <c r="E70">
+        <v>0.177613</v>
       </c>
       <c r="G70">
-        <v>0.025105</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>0.048343</v>
+        <v>0.056166</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>69</v>
       </c>
-      <c r="E71">
-        <v>0</v>
+      <c r="C71">
+        <v>0.133035</v>
       </c>
       <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0.076027</v>
-      </c>
-      <c r="J71">
-        <v>0.140301</v>
+        <v>0.025105</v>
       </c>
       <c r="K71">
-        <v>0.046066</v>
+        <v>0.048343</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>70</v>
       </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
       <c r="G72">
-        <v>0.046024</v>
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0.076027</v>
+      </c>
+      <c r="J72">
+        <v>0.140301</v>
       </c>
       <c r="K72">
-        <v>0.046024</v>
+        <v>0.046066</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>71</v>
       </c>
-      <c r="C73">
-        <v>0.141347</v>
-      </c>
       <c r="G73">
-        <v>0.010515</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
+        <v>0.046024</v>
       </c>
       <c r="K73">
-        <v>0.043666</v>
+        <v>0.046024</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>72</v>
       </c>
+      <c r="C74">
+        <v>0.141347</v>
+      </c>
       <c r="G74">
-        <v>0.034046</v>
+        <v>0.010515</v>
       </c>
       <c r="H74">
-        <v>0.083592</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>0.041737</v>
+        <v>0.043666</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>73</v>
       </c>
-      <c r="C75">
-        <v>0.130374</v>
-      </c>
       <c r="G75">
-        <v>0</v>
+        <v>0.034046</v>
+      </c>
+      <c r="H75">
+        <v>0.083592</v>
       </c>
       <c r="K75">
-        <v>0.041228</v>
+        <v>0.041737</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>74</v>
       </c>
-      <c r="E76">
-        <v>0</v>
+      <c r="C76">
+        <v>0.130374</v>
       </c>
       <c r="G76">
-        <v>0.020931</v>
-      </c>
-      <c r="H76">
-        <v>0.117848</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>0.040262</v>
+        <v>0.041228</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>75</v>
       </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
       <c r="G77">
-        <v>0.01234</v>
+        <v>0.020931</v>
       </c>
       <c r="H77">
-        <v>0.120253</v>
+        <v>0.117848</v>
       </c>
       <c r="K77">
-        <v>0.039789</v>
+        <v>0.040262</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>76</v>
       </c>
-      <c r="D78">
-        <v>0.063808</v>
-      </c>
       <c r="G78">
-        <v>0.031526</v>
+        <v>0.01234</v>
+      </c>
+      <c r="H78">
+        <v>0.120253</v>
       </c>
       <c r="K78">
-        <v>0.036079</v>
+        <v>0.039789</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>77</v>
       </c>
+      <c r="D79">
+        <v>0.063808</v>
+      </c>
       <c r="G79">
-        <v>0.033312</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
+        <v>0.031526</v>
       </c>
       <c r="K79">
-        <v>0.031602</v>
+        <v>0.036079</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4741,16 +4762,13 @@
         <v>78</v>
       </c>
       <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0.07256799999999999</v>
+        <v>0.033312</v>
       </c>
       <c r="I80">
-        <v>0.07155599999999999</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>0.030728</v>
+        <v>0.031602</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4758,32 +4776,41 @@
         <v>79</v>
       </c>
       <c r="G81">
-        <v>0.027218</v>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0.07256799999999999</v>
+      </c>
+      <c r="I81">
+        <v>0.07155599999999999</v>
       </c>
       <c r="K81">
-        <v>0.027218</v>
+        <v>0.030728</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>80</v>
       </c>
-      <c r="D82">
-        <v>0.034698</v>
-      </c>
       <c r="G82">
-        <v>0.022239</v>
+        <v>0.027218</v>
       </c>
       <c r="K82">
-        <v>0.023781</v>
+        <v>0.027218</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>81</v>
       </c>
+      <c r="D83">
+        <v>0.034698</v>
+      </c>
+      <c r="G83">
+        <v>0.022239</v>
+      </c>
       <c r="K83">
-        <v>0</v>
+        <v>0.023781</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4844,12 +4871,6 @@
       <c r="A90" t="s">
         <v>88</v>
       </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
       <c r="K90">
         <v>0</v>
       </c>
@@ -4857,6 +4878,12 @@
     <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>89</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
       </c>
       <c r="K91">
         <v>0</v>
